--- a/ArduinoGruppe/UART-Telegramm_Aufbau (1).xlsx
+++ b/ArduinoGruppe/UART-Telegramm_Aufbau (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AFE64-566C-4B9F-A3B5-7C83E470C751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C93DE-6440-4434-B07F-B00710CC54FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1548" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14928" yWindow="3720" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>aktuellen State</t>
   </si>
@@ -54,24 +54,9 @@
     <t>Arduino Empfängt</t>
   </si>
   <si>
-    <t>UINT</t>
-  </si>
-  <si>
     <t>binär</t>
   </si>
   <si>
-    <t xml:space="preserve">Anmerkung: </t>
-  </si>
-  <si>
-    <t>Motor_Cleaningunit = 90, bedeutet keine Bewegung</t>
-  </si>
-  <si>
-    <t>Motor_Cleaningunit = 0, volle Geschwindigkeit</t>
-  </si>
-  <si>
-    <t>Es wird maximal ein Wert von 45 als Bürstengeschwindigkeit verwendet</t>
-  </si>
-  <si>
     <t>MOTOR_UP</t>
   </si>
   <si>
@@ -172,6 +157,45 @@
   </si>
   <si>
     <t>ZUSTAND</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -446,25 +470,25 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,7 +808,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,10 +821,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="30"/>
+      <c r="F1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -838,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="F4" s="17">
         <v>0</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -855,19 +879,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -875,19 +899,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -895,19 +919,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
         <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -915,19 +939,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -935,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>6</v>
@@ -944,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -955,19 +979,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="18">
         <v>6</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -975,19 +999,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="21">
         <v>7</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -995,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1006,210 +1030,198 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="E21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="36"/>
+      <c r="E21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="33"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="5">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="5">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="5">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="5">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5">
-        <v>4</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="5">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="5">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5">
-        <v>6</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="5">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="8">
-        <v>7</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="5">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E30" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="5">
-        <v>8</v>
+      <c r="E30" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E31" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="5">
-        <v>9</v>
+      <c r="E31" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E32" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="5">
-        <v>10</v>
+      <c r="E32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E33" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="8">
-        <v>11</v>
+      <c r="E33" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E27:F27"/>
@@ -1218,11 +1230,6 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
